--- a/parambulator/beta_angle/beta_angle.xlsx
+++ b/parambulator/beta_angle/beta_angle.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A4829B-D889-0843-83BA-29765A86571F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64C2217-00F5-614F-AF12-F12F4E003845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" tabRatio="827" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11865,7 +11865,7 @@
   <dimension ref="B1:AE372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
